--- a/biology/Zoologie/Epixerus/Epixerus.xlsx
+++ b/biology/Zoologie/Epixerus/Epixerus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Epixerus  est un genre de rongeurs.
-Selon Mammal Species of the World (version 3, 2005)  (2 juin 2016)[1] et ITIS      (2 juin 2016)[2], il n'y a qu'une espèce :
+Selon Mammal Species of the World (version 3, 2005)  (2 juin 2016) et ITIS      (2 juin 2016), il n'y a qu'une espèce :
 Epixerus ebii (Temminck, 1853) - écureuil des palmiers
-NCBI  (2 juin 2016)[3] y ajoute :
+NCBI  (2 juin 2016) y ajoute :
 Epixerus wilsoni (Du Chaillu, 1860) -  écureuil de Wilson</t>
         </is>
       </c>
